--- a/Oregon/WaterAllocation/OR_POU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Oregon/WaterAllocation/OR_POU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oregon\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F430B1B3-F8A4-4E19-9366-8B0FD1538619}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FA24DB-A7AD-4F00-A7C7-DCDF8A0FB48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="291">
   <si>
     <t>Name</t>
   </si>
@@ -764,9 +764,6 @@
     <t>Data Links:</t>
   </si>
   <si>
-    <t>OWRD_Water Rights</t>
-  </si>
-  <si>
     <t>Oregon Water Rights</t>
   </si>
   <si>
@@ -783,9 +780,6 @@
   </si>
   <si>
     <t>(blank)</t>
-  </si>
-  <si>
-    <t>OWRD</t>
   </si>
   <si>
     <t xml:space="preserve">Oregon Water Resources Department </t>
@@ -908,9 +902,6 @@
     <t>Water right surface Points of Diversion (POD) and groundwater Points of Appropriation (POA) locations in the state of Oregon are collectively referred to as PODs.</t>
   </si>
   <si>
-    <t>OWRD_Allocation All</t>
-  </si>
-  <si>
     <t>GR: groundwater registrations
 PC: power claim
 SW: surface water registrations
@@ -980,6 +971,15 @@
   </si>
   <si>
     <t>POU</t>
+  </si>
+  <si>
+    <t>ORwr_M1</t>
+  </si>
+  <si>
+    <t>ORwr_V1</t>
+  </si>
+  <si>
+    <t>ORwr_O1</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1717,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1971,6 +1971,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2345,7 +2348,7 @@
         <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2353,7 +2356,7 @@
         <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2361,17 +2364,17 @@
         <v>240</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2384,7 +2387,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:G12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2487,7 +2490,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="F4" s="73" t="s">
         <v>38</v>
@@ -2519,7 +2522,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F5" s="67" t="s">
         <v>38</v>
@@ -2551,7 +2554,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F6" s="67" t="s">
         <v>38</v>
@@ -2583,7 +2586,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F7" s="67" t="s">
         <v>38</v>
@@ -2615,7 +2618,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>38</v>
@@ -2647,7 +2650,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F9" s="67" t="s">
         <v>38</v>
@@ -2677,7 +2680,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F10" s="67" t="s">
         <v>38</v>
@@ -2709,7 +2712,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F11" s="67" t="s">
         <v>38</v>
@@ -2741,7 +2744,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="67" t="s">
         <v>38</v>
@@ -2773,7 +2776,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:G13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2870,7 +2873,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="F4" s="73"/>
       <c r="G4" s="74"/>
@@ -3149,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3253,7 +3256,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="F4" s="73"/>
       <c r="G4" s="74"/>
@@ -3281,7 +3284,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F5" s="67"/>
       <c r="G5" s="62"/>
@@ -3309,7 +3312,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F6" s="67"/>
       <c r="G6" s="62"/>
@@ -3337,7 +3340,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F7" s="67"/>
       <c r="G7" s="62"/>
@@ -3365,7 +3368,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F8" s="67"/>
       <c r="G8" s="62"/>
@@ -3393,7 +3396,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F9" s="67"/>
       <c r="G9" s="62"/>
@@ -3421,7 +3424,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F10" s="67"/>
       <c r="G10" s="62"/>
@@ -3449,7 +3452,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F11" s="67"/>
       <c r="G11" s="62"/>
@@ -3477,7 +3480,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F12" s="67"/>
       <c r="G12" s="62"/>
@@ -3633,7 +3636,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F4" s="58" t="s">
         <v>38</v>
@@ -3663,7 +3666,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F5" s="53" t="s">
         <v>38</v>
@@ -3693,7 +3696,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F6" s="53" t="s">
         <v>38</v>
@@ -3753,7 +3756,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F8" s="53" t="s">
         <v>38</v>
@@ -3783,7 +3786,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F9" s="53" t="s">
         <v>38</v>
@@ -3813,13 +3816,13 @@
         <v>20</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F10" s="54" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="62" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H10" s="65"/>
       <c r="I10" s="66" t="s">
@@ -3950,7 +3953,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F4" s="73" t="s">
         <v>38</v>
@@ -3980,7 +3983,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F5" s="67" t="s">
         <v>38</v>
@@ -4010,7 +4013,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>38</v>
@@ -4040,7 +4043,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>38</v>
@@ -4070,7 +4073,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>38</v>
@@ -4100,7 +4103,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>38</v>
@@ -4128,7 +4131,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>38</v>
@@ -4158,7 +4161,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>38</v>
@@ -4188,7 +4191,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>38</v>
@@ -4218,7 +4221,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>38</v>
@@ -4247,7 +4250,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>38</v>
@@ -4276,7 +4279,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>38</v>
@@ -4306,7 +4309,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F16" s="29" t="s">
         <v>38</v>
@@ -4324,7 +4327,7 @@
     </row>
     <row r="17" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>16</v>
@@ -4336,7 +4339,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>38</v>
@@ -4346,7 +4349,7 @@
       </c>
       <c r="H17" s="82"/>
       <c r="I17" s="83" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J17" s="82"/>
     </row>
@@ -4364,7 +4367,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>38</v>
@@ -4398,7 +4401,7 @@
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="62" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H19" s="65"/>
       <c r="I19" s="47">
@@ -4422,7 +4425,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>38</v>
@@ -4452,7 +4455,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>38</v>
@@ -4482,7 +4485,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>38</v>
@@ -4512,7 +4515,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>38</v>
@@ -4541,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4799,7 +4802,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="F9" s="57" t="s">
         <v>38</v>
@@ -4831,7 +4834,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="F10" s="57" t="s">
         <v>38</v>
@@ -4863,7 +4866,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F11" s="57" t="s">
         <v>38</v>
@@ -4895,7 +4898,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="F12" s="57" t="s">
         <v>38</v>
@@ -4927,7 +4930,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F13" s="58" t="s">
         <v>38</v>
@@ -4959,7 +4962,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>38</v>
@@ -4991,7 +4994,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>38</v>
@@ -5023,7 +5026,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F16" s="29" t="s">
         <v>38</v>
@@ -5055,7 +5058,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>38</v>
@@ -5087,7 +5090,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>38</v>
@@ -5119,7 +5122,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>38</v>
@@ -5151,7 +5154,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>38</v>
@@ -5183,7 +5186,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>38</v>
@@ -5203,7 +5206,7 @@
     </row>
     <row r="22" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B22" s="41" t="s">
         <v>69</v>
@@ -5215,7 +5218,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>38</v>
@@ -5247,7 +5250,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>38</v>
@@ -5285,7 +5288,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="62" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H24" s="48" t="s">
         <v>38</v>
@@ -5311,11 +5314,11 @@
         <v>38</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="62" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H25" s="48" t="s">
         <v>38</v>
@@ -5347,7 +5350,7 @@
         <v>38</v>
       </c>
       <c r="G26" s="62" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H26" s="48" t="s">
         <v>38</v>
@@ -5373,7 +5376,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>38</v>
@@ -5405,7 +5408,7 @@
         <v>38</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>38</v>
@@ -5437,7 +5440,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>38</v>
@@ -5469,13 +5472,13 @@
         <v>20</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>38</v>
       </c>
       <c r="G30" s="62" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H30" s="48" t="s">
         <v>38</v>
@@ -5489,7 +5492,7 @@
     </row>
     <row r="31" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B31" s="41" t="s">
         <v>69</v>
@@ -5501,7 +5504,7 @@
         <v>38</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>38</v>
@@ -5539,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="62" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H32" s="48" t="s">
         <v>38</v>
@@ -5565,7 +5568,7 @@
         <v>38</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>38</v>
@@ -5597,7 +5600,7 @@
         <v>20</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>38</v>
@@ -5629,7 +5632,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>38</v>
@@ -5660,8 +5663,8 @@
       <c r="D36" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="29" t="s">
-        <v>247</v>
+      <c r="E36" s="86">
+        <v>44649</v>
       </c>
       <c r="F36" s="29" t="s">
         <v>38</v>
@@ -5693,7 +5696,7 @@
         <v>38</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>38</v>
@@ -5713,10 +5716,10 @@
     </row>
     <row r="38" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="56" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C38" s="42" t="s">
         <v>18</v>
@@ -5751,7 +5754,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>38</v>
@@ -5789,7 +5792,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H40" s="85"/>
       <c r="I40" s="48" t="s">
@@ -5813,7 +5816,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F41" s="29" t="s">
         <v>38</v>
@@ -5845,7 +5848,7 @@
         <v>38</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>38</v>
@@ -5865,7 +5868,7 @@
     </row>
     <row r="43" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -5877,7 +5880,7 @@
         <v>20</v>
       </c>
       <c r="E43" s="57" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F43" s="57" t="s">
         <v>38</v>
@@ -5889,10 +5892,10 @@
         <v>38</v>
       </c>
       <c r="I43" s="49" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J43" s="46" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -5915,7 +5918,7 @@
         <v>38</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F44" s="29" t="s">
         <v>38</v>
@@ -5947,7 +5950,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>38</v>
@@ -5979,7 +5982,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F46" s="29" t="s">
         <v>38</v>
@@ -6017,7 +6020,7 @@
         <v>38</v>
       </c>
       <c r="G47" s="62" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H47" s="48" t="s">
         <v>38</v>

--- a/Oregon/WaterAllocation/OR_POU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Oregon/WaterAllocation/OR_POU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oregon\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FA24DB-A7AD-4F00-A7C7-DCDF8A0FB48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269AEDE4-8154-4251-ADF5-3B473471A9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="293">
   <si>
     <t>Name</t>
   </si>
@@ -486,9 +486,6 @@
   </si>
   <si>
     <t>Water Administration for the State of Colorado</t>
-  </si>
-  <si>
-    <t>PrimaryUseCategory</t>
   </si>
   <si>
     <t>BeneficialUseCategory</t>
@@ -980,6 +977,15 @@
   </si>
   <si>
     <t>ORwr_O1</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>ORwr_WR + counter</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1723,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1973,6 +1979,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2345,36 +2354,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2429,10 +2438,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2473,7 +2482,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2490,7 +2499,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F4" s="73" t="s">
         <v>38</v>
@@ -2505,7 +2514,7 @@
         <v>139</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2522,7 +2531,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F5" s="67" t="s">
         <v>38</v>
@@ -2537,7 +2546,7 @@
         <v>108</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2554,7 +2563,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="67" t="s">
         <v>38</v>
@@ -2569,7 +2578,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2586,7 +2595,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F7" s="67" t="s">
         <v>38</v>
@@ -2601,7 +2610,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2618,7 +2627,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>38</v>
@@ -2630,10 +2639,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2650,7 +2659,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F9" s="67" t="s">
         <v>38</v>
@@ -2663,7 +2672,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2680,7 +2689,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F10" s="67" t="s">
         <v>38</v>
@@ -2695,7 +2704,7 @@
         <v>143</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -2712,7 +2721,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F11" s="67" t="s">
         <v>38</v>
@@ -2727,7 +2736,7 @@
         <v>107</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2744,7 +2753,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F12" s="67" t="s">
         <v>38</v>
@@ -2759,7 +2768,7 @@
         <v>109</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2818,10 +2827,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2856,7 +2865,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2873,7 +2882,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" s="73"/>
       <c r="G4" s="74"/>
@@ -2884,7 +2893,7 @@
         <v>140</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2912,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2940,7 +2949,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2968,7 +2977,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2996,7 +3005,7 @@
         <v>113</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3024,7 +3033,7 @@
         <v>114</v>
       </c>
       <c r="J9" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3052,7 +3061,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3080,7 +3089,7 @@
         <v>112</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3108,7 +3117,7 @@
         <v>144</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3136,7 +3145,7 @@
         <v>115</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3195,10 +3204,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3239,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3256,7 +3265,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F4" s="73"/>
       <c r="G4" s="74"/>
@@ -3267,7 +3276,7 @@
         <v>126</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3284,7 +3293,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F5" s="67"/>
       <c r="G5" s="62"/>
@@ -3295,7 +3304,7 @@
         <v>130</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3312,7 +3321,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" s="67"/>
       <c r="G6" s="62"/>
@@ -3323,7 +3332,7 @@
         <v>129</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.3">
@@ -3340,7 +3349,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F7" s="67"/>
       <c r="G7" s="62"/>
@@ -3351,7 +3360,7 @@
         <v>127</v>
       </c>
       <c r="J7" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3368,7 +3377,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8" s="67"/>
       <c r="G8" s="62"/>
@@ -3379,7 +3388,7 @@
         <v>147</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3396,7 +3405,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9" s="67"/>
       <c r="G9" s="62"/>
@@ -3407,7 +3416,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -3424,7 +3433,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F10" s="67"/>
       <c r="G10" s="62"/>
@@ -3435,7 +3444,7 @@
         <v>148</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3452,7 +3461,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F11" s="67"/>
       <c r="G11" s="62"/>
@@ -3463,7 +3472,7 @@
         <v>127</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3480,7 +3489,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F12" s="67"/>
       <c r="G12" s="62"/>
@@ -3491,7 +3500,7 @@
         <v>131</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3577,10 +3586,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3619,7 +3628,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3636,7 +3645,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F4" s="58" t="s">
         <v>38</v>
@@ -3649,7 +3658,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="40" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
@@ -3666,7 +3675,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F5" s="53" t="s">
         <v>38</v>
@@ -3679,7 +3688,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="40" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
@@ -3696,7 +3705,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="53" t="s">
         <v>38</v>
@@ -3709,7 +3718,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="40" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
@@ -3739,7 +3748,7 @@
         <v>118</v>
       </c>
       <c r="J7" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -3756,7 +3765,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F8" s="53" t="s">
         <v>38</v>
@@ -3766,10 +3775,10 @@
       </c>
       <c r="H8" s="65"/>
       <c r="I8" s="66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -3786,7 +3795,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F9" s="53" t="s">
         <v>38</v>
@@ -3799,7 +3808,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.3">
@@ -3816,20 +3825,20 @@
         <v>20</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F10" s="54" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H10" s="65"/>
       <c r="I10" s="66" t="s">
         <v>108</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3896,10 +3905,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3938,7 +3947,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3953,7 +3962,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F4" s="73" t="s">
         <v>38</v>
@@ -3966,7 +3975,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -3983,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F5" s="67" t="s">
         <v>38</v>
@@ -3996,7 +4005,7 @@
         <v>117</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4013,7 +4022,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>38</v>
@@ -4026,7 +4035,7 @@
         <v>124</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -4043,7 +4052,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>38</v>
@@ -4056,7 +4065,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -4073,7 +4082,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>38</v>
@@ -4086,7 +4095,7 @@
         <v>125</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="40" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
@@ -4103,7 +4112,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>38</v>
@@ -4114,7 +4123,7 @@
       <c r="H9" s="45"/>
       <c r="I9" s="47"/>
       <c r="J9" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="40" customFormat="1" ht="51" x14ac:dyDescent="0.3">
@@ -4131,7 +4140,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>38</v>
@@ -4144,7 +4153,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -4161,7 +4170,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>38</v>
@@ -4174,7 +4183,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -4191,7 +4200,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>38</v>
@@ -4204,7 +4213,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="40" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -4221,7 +4230,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>38</v>
@@ -4233,7 +4242,7 @@
         <v>122</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="40" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -4250,7 +4259,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>38</v>
@@ -4262,7 +4271,7 @@
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4279,7 +4288,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>38</v>
@@ -4292,7 +4301,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4309,7 +4318,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F16" s="29" t="s">
         <v>38</v>
@@ -4322,12 +4331,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>16</v>
@@ -4339,7 +4348,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>38</v>
@@ -4349,7 +4358,7 @@
       </c>
       <c r="H17" s="82"/>
       <c r="I17" s="83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J17" s="82"/>
     </row>
@@ -4367,7 +4376,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>38</v>
@@ -4380,7 +4389,7 @@
         <v>120</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -4401,14 +4410,14 @@
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H19" s="65"/>
       <c r="I19" s="47">
         <v>3703994</v>
       </c>
       <c r="J19" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="40" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -4425,7 +4434,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>38</v>
@@ -4438,7 +4447,7 @@
         <v>123</v>
       </c>
       <c r="J20" s="75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4455,7 +4464,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>38</v>
@@ -4468,7 +4477,7 @@
         <v>121</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4485,7 +4494,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>38</v>
@@ -4498,7 +4507,7 @@
         <v>141</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -4515,7 +4524,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>38</v>
@@ -4528,7 +4537,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4542,10 +4551,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4587,10 +4596,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4625,7 +4634,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -4657,7 +4666,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -4689,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -4721,7 +4730,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -4753,7 +4762,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -4785,56 +4794,46 @@
         <v>371091</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B10" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="44" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F10" s="57" t="s">
         <v>38</v>
@@ -4845,16 +4844,16 @@
       <c r="H10" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="48" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>67</v>
@@ -4865,8 +4864,8 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="47" t="s">
-        <v>277</v>
+      <c r="E11" s="76" t="s">
+        <v>289</v>
       </c>
       <c r="F11" s="57" t="s">
         <v>38</v>
@@ -4881,12 +4880,12 @@
         <v>38</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>67</v>
@@ -4897,8 +4896,8 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="77" t="s">
-        <v>289</v>
+      <c r="E12" s="47" t="s">
+        <v>276</v>
       </c>
       <c r="F12" s="57" t="s">
         <v>38</v>
@@ -4913,88 +4912,88 @@
         <v>38</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B14" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>278</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="47">
-        <v>5363</v>
+      <c r="C14" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>38</v>
@@ -5005,16 +5004,16 @@
       <c r="H15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" s="75" t="s">
-        <v>160</v>
+      <c r="I15" s="47">
+        <v>5363</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>68</v>
@@ -5026,7 +5025,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F16" s="29" t="s">
         <v>38</v>
@@ -5041,24 +5040,24 @@
         <v>133</v>
       </c>
       <c r="J16" s="75" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>253</v>
+        <v>38</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>245</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>38</v>
@@ -5070,27 +5069,27 @@
         <v>38</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="46" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="J17" s="75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>246</v>
+        <v>20</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>252</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>38</v>
@@ -5102,18 +5101,18 @@
         <v>38</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="75" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>18</v>
@@ -5122,7 +5121,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>38</v>
@@ -5134,18 +5133,18 @@
         <v>38</v>
       </c>
       <c r="I19" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="46" t="s">
-        <v>195</v>
+        <v>138</v>
+      </c>
+      <c r="J19" s="75" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>18</v>
@@ -5154,7 +5153,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>38</v>
@@ -5165,28 +5164,28 @@
       <c r="H20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="75" t="s">
-        <v>160</v>
+      <c r="I20" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>38</v>
@@ -5197,28 +5196,28 @@
       <c r="H21" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="47">
-        <v>5200</v>
-      </c>
-      <c r="J21" s="46" t="s">
-        <v>196</v>
+      <c r="I21" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="75" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="56" t="s">
-        <v>279</v>
+      <c r="A22" s="40" t="s">
+        <v>152</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>38</v>
@@ -5226,31 +5225,31 @@
       <c r="G22" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="79" t="s">
+      <c r="H22" s="48" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="47">
-        <v>1</v>
+        <v>5200</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
-        <v>86</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="56" t="s">
+        <v>278</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>38</v>
@@ -5258,157 +5257,157 @@
       <c r="G23" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="47" t="s">
-        <v>136</v>
+      <c r="H23" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="47">
+        <v>1</v>
       </c>
       <c r="J23" s="46" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B24" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="62" t="s">
-        <v>257</v>
+      <c r="G24" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="H24" s="48" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="47" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J24" s="46" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F25" s="29"/>
+      <c r="E25" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="G25" s="62" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="H25" s="48" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J25" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B26" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="62" t="s">
-        <v>260</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="J26" s="46" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="32" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>18</v>
+      <c r="C27" s="45" t="s">
+        <v>38</v>
       </c>
       <c r="D27" s="44" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="49" t="s">
-        <v>38</v>
+      <c r="G27" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="47" t="s">
+        <v>156</v>
       </c>
       <c r="J27" s="46" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="32" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="40" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C28" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>38</v>
@@ -5416,19 +5415,19 @@
       <c r="G28" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="84">
-        <v>44196</v>
+      <c r="H28" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" s="41" t="s">
         <v>106</v>
@@ -5440,7 +5439,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>38</v>
@@ -5452,155 +5451,155 @@
         <v>38</v>
       </c>
       <c r="I29" s="84">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="40" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="64" t="s">
-        <v>267</v>
+        <v>38</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>245</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="62" t="s">
-        <v>258</v>
+      <c r="G30" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="H30" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="J30" s="75" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="56" t="s">
-        <v>280</v>
+      <c r="I30" s="84">
+        <v>43831</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="40" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="40" t="s">
+        <v>87</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>246</v>
+        <v>20</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>266</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="47">
+      <c r="G31" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="47">
         <v>0</v>
       </c>
-      <c r="J31" s="46" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="62" t="s">
-        <v>256</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="48" t="s">
-        <v>38</v>
-      </c>
       <c r="J32" s="46" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B33" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="41" t="s">
-        <v>18</v>
+      <c r="C33" s="45" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="29" t="s">
-        <v>246</v>
+      <c r="E33" s="64" t="s">
+        <v>38</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="37" t="s">
-        <v>38</v>
+      <c r="G33" s="62" t="s">
+        <v>255</v>
       </c>
       <c r="H33" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="75" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="I33" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>38</v>
@@ -5614,13 +5613,13 @@
       <c r="I34" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="46" t="s">
-        <v>233</v>
+      <c r="J34" s="75" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="41" t="s">
         <v>15</v>
@@ -5632,7 +5631,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>38</v>
@@ -5647,24 +5646,24 @@
         <v>133</v>
       </c>
       <c r="J35" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>18</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="86">
-        <v>44649</v>
+        <v>20</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>245</v>
       </c>
       <c r="F36" s="29" t="s">
         <v>38</v>
@@ -5675,51 +5674,51 @@
       <c r="H36" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="50">
-        <v>43874</v>
+      <c r="I36" s="47" t="s">
+        <v>133</v>
       </c>
       <c r="J36" s="46" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="86">
+        <v>44649</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="50">
+        <v>43874</v>
+      </c>
+      <c r="J37" s="46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B38" s="41" t="s">
         <v>15</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="50">
-        <v>33187</v>
-      </c>
-      <c r="J37" s="75" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>282</v>
       </c>
       <c r="C38" s="42" t="s">
         <v>18</v>
@@ -5727,54 +5726,54 @@
       <c r="D38" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="50">
+        <v>33187</v>
+      </c>
+      <c r="J38" s="75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="29">
         <v>0</v>
       </c>
-      <c r="F38" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="79"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="75"/>
-    </row>
-    <row r="39" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>246</v>
-      </c>
       <c r="F39" s="29" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="46" t="s">
-        <v>207</v>
-      </c>
+      <c r="H39" s="79"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="75"/>
     </row>
     <row r="40" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="41" t="s">
         <v>69</v>
@@ -5786,69 +5785,69 @@
         <v>38</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="F40" s="29" t="s">
         <v>38</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="H40" s="85"/>
+        <v>38</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>38</v>
+      </c>
       <c r="I40" s="48" t="s">
         <v>38</v>
       </c>
       <c r="J40" s="46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="40" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="F41" s="29" t="s">
         <v>38</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="47" t="s">
-        <v>133</v>
+        <v>285</v>
+      </c>
+      <c r="H41" s="85"/>
+      <c r="I41" s="48" t="s">
+        <v>38</v>
       </c>
       <c r="J41" s="46" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>38</v>
@@ -5859,98 +5858,98 @@
       <c r="H42" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="75" t="s">
-        <v>160</v>
+      <c r="I42" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="F44" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="57" t="s">
-        <v>283</v>
-      </c>
-      <c r="F43" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="49" t="s">
+      <c r="J44" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="J43" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="46" t="s">
-        <v>209</v>
-      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="40" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C45" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>38</v>
@@ -5961,80 +5960,112 @@
       <c r="H45" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I45" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="J45" s="75" t="s">
-        <v>160</v>
+      <c r="I45" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="46" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="40" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="53" t="s">
-        <v>253</v>
+      <c r="E46" s="29" t="s">
+        <v>245</v>
       </c>
       <c r="F46" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="62" t="s">
+      <c r="G46" s="37" t="s">
         <v>38</v>
       </c>
       <c r="H46" s="48" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="J46" s="46" t="s">
-        <v>210</v>
+        <v>133</v>
+      </c>
+      <c r="J46" s="75" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B48" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C48" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="H47" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="47" t="s">
+      <c r="D48" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="H48" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J47" s="46" t="s">
-        <v>211</v>
+      <c r="J48" s="46" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J47">
-    <sortCondition ref="A14:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:J48">
+    <sortCondition ref="A15:A48"/>
   </sortState>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Oregon/WaterAllocation/OR_POU_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Oregon/WaterAllocation/OR_POU_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oregon\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269AEDE4-8154-4251-ADF5-3B473471A9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E198F1-4C18-4972-85D5-4598958B6560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="294">
   <si>
     <t>Name</t>
   </si>
@@ -761,19 +761,10 @@
     <t>Data Links:</t>
   </si>
   <si>
-    <t>Oregon Water Rights</t>
-  </si>
-  <si>
-    <t>Water Rights</t>
-  </si>
-  <si>
     <t>https://www.oregon.gov/OWRD/access_Data/Pages/Data.aspx</t>
   </si>
   <si>
     <t>Surface/Ground/Storage</t>
-  </si>
-  <si>
-    <t>Adjudicated</t>
   </si>
   <si>
     <t>(blank)</t>
@@ -986,6 +977,18 @@
   </si>
   <si>
     <t>ORwr_WR + counter</t>
+  </si>
+  <si>
+    <t>This product is for informational purposes and may not have been prepared for, or be suitable for legal, engineering, or surveying purposes. Users of this information should review or consult the primary data and information sources to ascertain the usability of the information.</t>
+  </si>
+  <si>
+    <t>Oregon Water Rights Method</t>
+  </si>
+  <si>
+    <t>https://arcgis.wrd.state.or.us/data/OWRD_WR_GIS_procedures.pdf</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1726,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1779,9 +1782,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1857,9 +1857,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1881,11 +1878,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1917,13 +1911,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1981,7 +1972,10 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2348,42 +2342,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="50" t="s">
         <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2395,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2466,13 +2460,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="28" t="s">
+      <c r="E3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2481,7 +2475,7 @@
       <c r="I3" s="17">
         <v>11</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="44" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2489,22 +2483,22 @@
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="74" t="s">
+      <c r="C4" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="70" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -2513,7 +2507,7 @@
       <c r="I4" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="44" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2530,13 +2524,13 @@
       <c r="D5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="62" t="s">
+      <c r="E5" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="59" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -2545,7 +2539,7 @@
       <c r="I5" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="44" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2562,22 +2556,22 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="67" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="62" t="s">
+      <c r="E6" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="59" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="49">
         <v>0.5</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="44" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2594,22 +2588,22 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="67" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="62" t="s">
+      <c r="E7" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="59" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="46" t="s">
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="44" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2626,22 +2620,22 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="67" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="62" t="s">
+      <c r="E8" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="59" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="44" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2658,20 +2652,20 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="F9" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="62" t="s">
+      <c r="E9" s="83" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="59" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="44" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2688,13 +2682,13 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="62" t="s">
+      <c r="E10" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="59" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -2703,11 +2697,11 @@
       <c r="I10" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="44" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2720,13 +2714,13 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="62" t="s">
+      <c r="E11" s="84" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="59" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -2735,7 +2729,7 @@
       <c r="I11" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="44" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2752,13 +2746,13 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="62" t="s">
+      <c r="E12" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="59" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -2767,7 +2761,7 @@
       <c r="I12" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="44" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2775,8 +2769,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{D38A08BD-FBBD-4660-BD30-3D321E602D6F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2855,16 +2852,16 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>16</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="44" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2872,27 +2869,27 @@
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="44" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2909,18 +2906,18 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="63">
         <v>1</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="62"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="44" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2937,18 +2934,18 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="62"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="44" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2965,18 +2962,18 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="62"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="44" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2993,18 +2990,18 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="62"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="44" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3021,18 +3018,18 @@
       <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="62"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="44" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3049,18 +3046,18 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="63">
         <v>10</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="62"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="17">
         <v>10</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="44" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3077,18 +3074,18 @@
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="62"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="44" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3105,18 +3102,18 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="62"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="44" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3133,18 +3130,18 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="62"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="44" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3232,13 +3229,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -3247,7 +3244,7 @@
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="44" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3255,27 +3252,27 @@
       <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="44" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3292,18 +3289,18 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="62"/>
+      <c r="E5" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="44" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3320,18 +3317,18 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="62"/>
+      <c r="E6" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="44" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3348,18 +3345,18 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="62"/>
+      <c r="E7" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="44" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3376,18 +3373,18 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="62"/>
+      <c r="E8" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="44" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3404,18 +3401,18 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="62"/>
+      <c r="E9" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="44" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3432,18 +3429,18 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="62"/>
+      <c r="E10" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="44" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3460,18 +3457,18 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="81" t="s">
-        <v>242</v>
-      </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="62"/>
+      <c r="E11" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="44" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3488,18 +3485,18 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="62"/>
+      <c r="E12" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="44" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3614,20 +3611,20 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="44" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3635,209 +3632,209 @@
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="C4" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="44" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="40" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:10" s="39" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="46" t="s">
+      <c r="D5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="40" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:10" s="39" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="46" t="s">
+      <c r="E6" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="I6" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="44" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="40" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:10" s="39" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="43" t="s">
+      <c r="C7" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="66" t="s">
+      <c r="F7" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="44" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66" t="s">
+      <c r="D8" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="62"/>
+      <c r="I8" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="44" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="66">
+      <c r="D9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="63">
         <v>17839</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="44" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:10" s="39" customFormat="1" ht="48" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="44" t="s">
+      <c r="C10" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66" t="s">
+      <c r="E10" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="44" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3933,610 +3930,610 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="44" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="69" t="s">
+    <row r="4" spans="1:10" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="47" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="44" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="47" t="s">
+      <c r="D5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="44" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:10" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="47" t="s">
+      <c r="E6" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="I6" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="44" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="75" t="s">
+      <c r="D7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="41"/>
+      <c r="I7" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="71" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="43" t="s">
+      <c r="C8" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="47" t="s">
+      <c r="E8" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="62"/>
+      <c r="I8" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="44" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="40" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:10" s="39" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="46" t="s">
+      <c r="D9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="40" customFormat="1" ht="51" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:10" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="46" t="s">
+      <c r="E10" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="44" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="75" t="s">
+      <c r="D11" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="41"/>
+      <c r="I11" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="71" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="75" t="s">
+      <c r="D12" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="71" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="40" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:10" s="39" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="29" t="s">
+      <c r="D13" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="39" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="45">
+        <v>-1067.700435</v>
+      </c>
+      <c r="J14" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="40" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="42" t="s">
+      <c r="F17" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="J17" s="78"/>
+    </row>
+    <row r="18" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="47">
-        <v>-1067.700435</v>
-      </c>
-      <c r="J14" s="46" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="42" t="s">
+      <c r="D19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="H19" s="62"/>
+      <c r="I19" s="45">
+        <v>3703994</v>
+      </c>
+      <c r="J19" s="44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="39" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="42" t="s">
+      <c r="D20" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D21" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="46" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="42" t="s">
+      <c r="E21" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="82"/>
-      <c r="I17" s="83" t="s">
-        <v>275</v>
-      </c>
-      <c r="J17" s="82"/>
-    </row>
-    <row r="18" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="42" t="s">
+      <c r="D22" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="62" t="s">
-        <v>284</v>
-      </c>
-      <c r="H19" s="65"/>
-      <c r="I19" s="47">
-        <v>3703994</v>
-      </c>
-      <c r="J19" s="46" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="40" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" s="75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" s="46" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="J22" s="46" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="75" t="s">
+      <c r="D23" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="I23" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="71" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4553,7 +4550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4611,243 +4608,243 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="47">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="45">
         <v>50004</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="44" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="47">
+      <c r="E4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="45">
         <v>43</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="44" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="47">
+      <c r="E5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="45">
         <v>1</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="44" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="47">
+      <c r="E6" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="45">
         <v>39035</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="44" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="47">
+      <c r="E7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="45">
         <v>63</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J7" s="44" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="47">
+      <c r="E8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="45">
         <v>371091</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="44" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="B9" s="41" t="s">
+    <row r="9" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>292</v>
-      </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="46"/>
-    </row>
-    <row r="10" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="C9" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="44"/>
+    </row>
+    <row r="10" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="46" t="s">
+      <c r="C10" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="44" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4864,22 +4861,22 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="76" t="s">
-        <v>289</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="46" t="s">
+      <c r="E11" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="44" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4896,22 +4893,22 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="46" t="s">
+      <c r="E12" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="44" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4928,22 +4925,22 @@
       <c r="D13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="77" t="s">
-        <v>288</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="46" t="s">
+      <c r="E13" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="44" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4951,955 +4948,955 @@
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="78" t="s">
+      <c r="C14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="45">
+        <v>5363</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="45">
+        <v>5200</v>
+      </c>
+      <c r="J22" s="44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="45">
+        <v>1</v>
+      </c>
+      <c r="J23" s="44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" s="44" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="44" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" s="44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="31" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="80">
+        <v>44196</v>
+      </c>
+      <c r="J29" s="44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="80">
+        <v>43831</v>
+      </c>
+      <c r="J30" s="44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="39" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="45">
+        <v>0</v>
+      </c>
+      <c r="J32" s="44" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" s="71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J36" s="44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="82">
+        <v>44649</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="48">
+        <v>43874</v>
+      </c>
+      <c r="J37" s="44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="48">
+        <v>33187</v>
+      </c>
+      <c r="J38" s="71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="F14" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="46" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="42" t="s">
+      <c r="B39" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D39" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="28">
+        <v>0</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="75"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="71"/>
+    </row>
+    <row r="40" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="H41" s="81"/>
+      <c r="I41" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A42" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="47">
-        <v>5363</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="41" t="s">
+      <c r="E42" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="J16" s="75" t="s">
+      <c r="D43" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="71" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="J17" s="75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="J19" s="75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="J20" s="46" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="47">
-        <v>5200</v>
-      </c>
-      <c r="J22" s="46" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
-        <v>278</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="47">
-        <v>1</v>
-      </c>
-      <c r="J23" s="46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="J24" s="46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="62" t="s">
-        <v>256</v>
-      </c>
-      <c r="H25" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" s="46" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>258</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="62" t="s">
+    <row r="44" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="J26" s="46" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="H27" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="J27" s="46" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="32" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="46" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="84">
-        <v>44196</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="84">
-        <v>43831</v>
-      </c>
-      <c r="J30" s="46" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="40" customFormat="1" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="62" t="s">
-        <v>257</v>
-      </c>
-      <c r="H31" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="J31" s="75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="47">
-        <v>0</v>
-      </c>
-      <c r="J32" s="46" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="H33" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="46" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="J34" s="75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A35" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="J35" s="46" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="J36" s="46" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="86">
-        <v>44649</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="50">
-        <v>43874</v>
-      </c>
-      <c r="J37" s="46" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="50">
-        <v>33187</v>
-      </c>
-      <c r="J38" s="75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="29">
-        <v>0</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="79"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="75"/>
-    </row>
-    <row r="40" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="46" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="H41" s="85"/>
-      <c r="I41" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="40" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A42" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="J42" s="46" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -5910,23 +5907,23 @@
       <c r="D44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="57" t="s">
-        <v>282</v>
-      </c>
-      <c r="F44" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="J44" s="46" t="s">
-        <v>269</v>
+      <c r="E44" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="F44" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="J44" s="44" t="s">
+        <v>266</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -5935,131 +5932,131 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40" t="s">
+    <row r="45" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="46" t="s">
+      <c r="D45" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J45" s="44" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="40" t="s">
+    <row r="46" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="44" t="s">
+      <c r="D46" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="47" t="s">
+      <c r="E46" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="75" t="s">
+      <c r="J46" s="71" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="B47" s="41" t="s">
+    <row r="47" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="B47" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I47" s="47" t="s">
+      <c r="E47" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="46" t="s">
+      <c r="J47" s="44" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="40" t="s">
+    <row r="48" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="62" t="s">
-        <v>260</v>
-      </c>
-      <c r="H48" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="47" t="s">
+      <c r="D48" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="H48" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="J48" s="46" t="s">
+      <c r="J48" s="44" t="s">
         <v>210</v>
       </c>
     </row>
